--- a/documentation/EF_Project_Test_Cases.xlsx
+++ b/documentation/EF_Project_Test_Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="945" windowWidth="27255" windowHeight="11610"/>
+    <workbookView xWindow="870" yWindow="945" windowWidth="20730" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Test Case No.</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>The user has been successfully re-directed to the 'Home' page.</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -568,7 +571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -629,7 +632,9 @@
         <v>7</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
@@ -644,7 +649,9 @@
         <v>10</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
@@ -659,7 +666,9 @@
         <v>11</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -674,7 +683,9 @@
         <v>11</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -689,7 +700,9 @@
         <v>11</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -704,7 +717,9 @@
         <v>11</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -719,7 +734,9 @@
         <v>17</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
@@ -734,7 +751,9 @@
         <v>19</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
@@ -749,7 +768,9 @@
         <v>23</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
@@ -764,7 +785,9 @@
         <v>22</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
@@ -775,7 +798,9 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="E13" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
@@ -790,7 +815,9 @@
         <v>27</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
@@ -805,7 +832,9 @@
         <v>29</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
@@ -820,7 +849,9 @@
         <v>31</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
@@ -835,7 +866,9 @@
         <v>33</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
@@ -844,7 +877,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" sqref="E3:E12">
+    <dataValidation type="list" sqref="E3:E17">
       <formula1>"Pass,Fail,Cannot Test"</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F3:F12">
